--- a/new_batch_wrong.xlsx
+++ b/new_batch_wrong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhuang\OneDrive - Sutro Biopharma\Documents 1\Python_Scripts\Batch_Evolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151581C3-2707-4461-84D9-5939BD68F797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75D5727-2C01-4C9C-A404-6E61CA4024DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="864" windowWidth="22896" windowHeight="12096" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
+    <workbookView xWindow="4230" yWindow="4590" windowWidth="28020" windowHeight="14520" xr2:uid="{0310440D-61B7-413C-B7D8-88EB4936DC9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>S2_syn_021</t>
   </si>
@@ -56,13 +56,13 @@
     <t>glucose_g_L</t>
   </si>
   <si>
-    <t>mg_mM</t>
-  </si>
-  <si>
     <t>nh3_mM</t>
   </si>
   <si>
     <t>phosphate_mM</t>
+  </si>
+  <si>
+    <t>magnesium_mM</t>
   </si>
 </sst>
 </file>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BFDC5-7B88-4D01-8A79-15C57BEFFBE5}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +482,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,6 +1087,58 @@
       </c>
       <c r="H24">
         <v>12.316220786303511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.29544108833230792</v>
+      </c>
+      <c r="D25">
+        <v>122.5155170652282</v>
+      </c>
+      <c r="E25">
+        <v>2.9892626455697542</v>
+      </c>
+      <c r="F25">
+        <v>8.3692943076958688</v>
+      </c>
+      <c r="G25">
+        <v>42.727371279998657</v>
+      </c>
+      <c r="H25">
+        <v>13.8795316867579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.30453807113922682</v>
+      </c>
+      <c r="D26">
+        <v>112.1966482609562</v>
+      </c>
+      <c r="E26">
+        <v>2.8282351451278398</v>
+      </c>
+      <c r="F26">
+        <v>8.323499365918833</v>
+      </c>
+      <c r="G26">
+        <v>39.49401510294215</v>
+      </c>
+      <c r="H26">
+        <v>14.46435414886861</v>
       </c>
     </row>
   </sheetData>
